--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75621.20662252253</v>
+        <v>-84952.25776574574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.59168269</v>
+        <v>29520662.93214757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.9934074</v>
+        <v>14696419.30559704</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2064080.037666052</v>
+        <v>2279474.395030277</v>
       </c>
     </row>
     <row r="11">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>321.0489522413095</v>
       </c>
       <c r="D20" t="n">
-        <v>386.0309950025953</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>116.5428809687512</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2378,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>202.7818644049969</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.4976936655855</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.42713816964669</v>
       </c>
       <c r="E25" t="n">
-        <v>147.7534610583999</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>211.0948858789031</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>19.10982666625593</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>157.974495283416</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>323.1063928328358</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>125.4289004454252</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>399.7910657140874</v>
       </c>
       <c r="F32" t="n">
-        <v>232.79575053631</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.69254647175497</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>41.26176538196641</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>43.25884065436964</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>159.1000412385906</v>
+        <v>148.3766424751937</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>271.5592753367715</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>393.8123863604691</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.1023822252945</v>
+        <v>82.37452594065145</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3712,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>386.0309950025953</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>122.677833312105</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8.112733586603417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>106.062636650466</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>209.3067930592827</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>136.6048767950011</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>851.7413961748201</v>
+        <v>786.1029691432183</v>
       </c>
       <c r="C20" t="n">
-        <v>851.7413961748201</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D20" t="n">
         <v>461.8110981924006</v>
@@ -5753,19 +5755,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5777,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X20" t="n">
-        <v>1278.040966659728</v>
+        <v>1194.389092843565</v>
       </c>
       <c r="Y20" t="n">
-        <v>1278.040966659728</v>
+        <v>786.1029691432183</v>
       </c>
     </row>
     <row r="21">
@@ -5808,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5817,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5835,16 +5837,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O21" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5932,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U22" t="n">
-        <v>992.2117929153466</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V22" t="n">
-        <v>705.2562847857771</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W22" t="n">
-        <v>433.2298803720686</v>
+        <v>1420.221979591797</v>
       </c>
       <c r="X22" t="n">
-        <v>187.8381257054811</v>
+        <v>1174.830224925209</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.94366860160834</v>
+        <v>947.4105542393174</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="C23" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D23" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E23" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
         <v>1107.976466382457</v>
@@ -6014,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V23" t="n">
-        <v>771.6250763881362</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W23" t="n">
-        <v>366.7696217991695</v>
+        <v>870.5140112656072</v>
       </c>
       <c r="X23" t="n">
-        <v>366.7696217991695</v>
+        <v>870.5140112656072</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6069,22 +6071,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L24" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O24" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P24" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q24" t="n">
         <v>1580.010651986078</v>
@@ -6121,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.39009218466</v>
+        <v>990.9896325459688</v>
       </c>
       <c r="C25" t="n">
-        <v>665.39009218466</v>
+        <v>818.4279210291937</v>
       </c>
       <c r="D25" t="n">
-        <v>665.39009218466</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E25" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F25" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G25" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H25" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>761.43086230084</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P25" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6184,13 +6186,13 @@
         <v>1410.227921950848</v>
       </c>
       <c r="W25" t="n">
-        <v>1138.201517537139</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X25" t="n">
-        <v>892.8097628705518</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.39009218466</v>
+        <v>1182.808251264956</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>964.8826548745612</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D26" t="n">
-        <v>536.3009806118296</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E26" t="n">
-        <v>323.0738231583921</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6251,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.94366860160834</v>
+        <v>391.6862281353011</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>219.124516618526</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>53.24652382004868</v>
       </c>
       <c r="E28" t="n">
         <v>33.94366860160834</v>
@@ -6421,13 +6423,13 @@
         <v>864.4976534877803</v>
       </c>
       <c r="W28" t="n">
-        <v>592.4712490740719</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X28" t="n">
-        <v>347.0794944074844</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.6598237215927</v>
+        <v>391.6862281353011</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>891.5238064999317</v>
+        <v>884.041851791104</v>
       </c>
       <c r="C29" t="n">
-        <v>462.9421322372</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D29" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E29" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F29" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G29" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6467,22 +6469,22 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V29" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W29" t="n">
-        <v>891.5238064999317</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X29" t="n">
-        <v>891.5238064999317</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y29" t="n">
-        <v>891.5238064999317</v>
+        <v>884.041851791104</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,22 +6530,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
         <v>1159.957753041174</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>884.4397056785397</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C31" t="n">
-        <v>711.8779941617646</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D31" t="n">
-        <v>546.0000013632873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E31" t="n">
-        <v>376.2419976140245</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F31" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U31" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V31" t="n">
-        <v>1549.069749750006</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W31" t="n">
-        <v>1549.069749750006</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X31" t="n">
-        <v>1303.677995083419</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y31" t="n">
-        <v>1076.258324397527</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>670.4887227422939</v>
+        <v>437.7730279087674</v>
       </c>
       <c r="C32" t="n">
-        <v>670.4887227422939</v>
+        <v>437.7730279087674</v>
       </c>
       <c r="D32" t="n">
-        <v>670.4887227422939</v>
+        <v>437.7730279087674</v>
       </c>
       <c r="E32" t="n">
-        <v>670.4887227422939</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F32" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G32" t="n">
         <v>33.94366860160834</v>
@@ -6701,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6725,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W32" t="n">
-        <v>670.4887227422939</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X32" t="n">
-        <v>670.4887227422939</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y32" t="n">
-        <v>670.4887227422939</v>
+        <v>437.7730279087674</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6782,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
         <v>1159.957753041174</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.1357312073217</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C34" t="n">
-        <v>778.5740196905466</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D34" t="n">
-        <v>612.6960268920693</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E34" t="n">
-        <v>442.9380231428066</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6859,49 +6861,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="U34" t="n">
-        <v>1238.091239336891</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="V34" t="n">
-        <v>951.1357312073217</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="W34" t="n">
-        <v>951.1357312073217</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X34" t="n">
-        <v>951.1357312073217</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.1357312073217</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C35" t="n">
-        <v>1319.391236090724</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D35" t="n">
-        <v>890.8095618279922</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E35" t="n">
-        <v>462.2278875652606</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F35" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P36" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H37" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7117,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W37" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X37" t="n">
-        <v>453.1819580064872</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.7622873205955</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>435.3414999783445</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C38" t="n">
-        <v>435.3414999783445</v>
+        <v>860.3156321173392</v>
       </c>
       <c r="D38" t="n">
-        <v>435.3414999783445</v>
+        <v>860.3156321173392</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>431.7339578546075</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
         <v>33.94366860160834</v>
@@ -7172,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7202,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W38" t="n">
-        <v>709.6437982983157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X38" t="n">
-        <v>709.6437982983157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y38" t="n">
-        <v>709.6437982983157</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P39" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q39" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R39" t="n">
         <v>1697.183430080417</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="C40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="D40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="E40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="F40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="G40" t="n">
-        <v>241.8989534080386</v>
+        <v>205.8102096861769</v>
       </c>
       <c r="H40" t="n">
         <v>122.603617826933</v>
@@ -7330,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M40" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7360,22 +7362,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V40" t="n">
-        <v>951.1357312073217</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W40" t="n">
-        <v>679.1093267936133</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X40" t="n">
-        <v>433.7175721270257</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y40" t="n">
-        <v>433.7175721270257</v>
+        <v>205.8102096861769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>851.7413961748201</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C41" t="n">
-        <v>851.7413961748201</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D41" t="n">
-        <v>851.7413961748201</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E41" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7439,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>731.3599468587387</v>
       </c>
       <c r="X41" t="n">
-        <v>1278.040966659728</v>
+        <v>731.3599468587387</v>
       </c>
       <c r="Y41" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>694.0968560634212</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C43" t="n">
-        <v>694.0968560634212</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D43" t="n">
-        <v>694.0968560634212</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E43" t="n">
-        <v>524.3388523141584</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F43" t="n">
-        <v>347.6317982759147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>182.0405233017423</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>42.13834899211685</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7573,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7594,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1590.049453665805</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W43" t="n">
-        <v>885.9154747824084</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X43" t="n">
-        <v>885.9154747824084</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y43" t="n">
-        <v>885.9154747824084</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1250.986553248845</v>
       </c>
     </row>
   </sheetData>
@@ -9401,10 +9403,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9483,19 +9485,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9571,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,16 +9646,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -9717,13 +9719,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L24" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L24" t="n">
-        <v>358.9284720888814</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -10115,10 +10117,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10428,13 +10430,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10507,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10905,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>310.5396916710388</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11221,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>112.7120958471015</v>
       </c>
       <c r="D20" t="n">
-        <v>45.51969197470459</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>152.7632594008202</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,7 +24217,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24224,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>198.0250356380801</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>74.70556879775756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>120.7920747008458</v>
       </c>
       <c r="E25" t="n">
-        <v>20.30696265337019</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>218.3421115143847</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>148.9505970455142</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>275.7865528049949</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24692,13 +24694,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>77.70050721024126</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -24895,13 +24897,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>158.6570526028486</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>237.2929137874768</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24923,13 +24925,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>29.64593167920032</v>
       </c>
       <c r="F32" t="n">
-        <v>190.7930047585744</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.2474370261064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>116.3871896330169</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>59.74677603861437</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>371.6921981321128</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>83.837795881331</v>
+        <v>94.56119464472795</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>150.4772994432872</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>29.77636893441519</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25442,22 +25444,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25564,7 +25566,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>20.40077034123469</v>
+        <v>56.12862662587777</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25634,16 +25636,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>43.40600239069244</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>278.129066730972</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25792,19 +25794,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>79.660616146468</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>51.58631836451733</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25919,13 +25921,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>191.5001069837944</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>53.2955557367961</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -26080,7 +26082,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372993.3355941704</v>
+        <v>372993.3355941703</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372993.3355941704</v>
+        <v>372993.3355941703</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372993.3355941703</v>
+        <v>372993.3355941704</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>372993.3355941703</v>
       </c>
     </row>
   </sheetData>
@@ -26329,16 +26331,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="I2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="J2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="K2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="L2" t="n">
         <v>66111.28565914043</v>
@@ -26347,13 +26349,13 @@
         <v>66111.28565914044</v>
       </c>
       <c r="N2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914046</v>
       </c>
       <c r="O2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>66111.28565914044</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>100292.5090254571</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>18764.36858177456</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18764.36858177456</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26537,16 +26539,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-92929.1120814983</v>
+        <v>-92929.11208149832</v>
       </c>
       <c r="I6" t="n">
-        <v>21549.72894014353</v>
+        <v>21549.72894014352</v>
       </c>
       <c r="J6" t="n">
         <v>21549.72894014353</v>
       </c>
       <c r="K6" t="n">
-        <v>21549.72894014356</v>
+        <v>21549.72894014354</v>
       </c>
       <c r="L6" t="n">
         <v>21549.72894014352</v>
@@ -26555,13 +26557,13 @@
         <v>21549.72894014354</v>
       </c>
       <c r="N6" t="n">
-        <v>21549.72894014353</v>
+        <v>21549.72894014356</v>
       </c>
       <c r="O6" t="n">
-        <v>21549.72894014352</v>
+        <v>21549.72894014354</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-78742.7800853136</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -36121,10 +36123,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36203,19 +36205,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -36437,13 +36439,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L24" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L24" t="n">
-        <v>358.9284720888814</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36835,10 +36837,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37148,13 +37150,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37227,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37625,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>310.5396916710388</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37941,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84952.25776574574</v>
+        <v>-94316.17558524825</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29520662.93214757</v>
+        <v>28907448.27261246</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14696419.30559704</v>
+        <v>14095407.61778665</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2279474.395030277</v>
+        <v>2586047.728195713</v>
       </c>
     </row>
     <row r="11">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>237.5942688569073</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631583</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>87.63002823424894</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>321.0489522413095</v>
+        <v>146.8140974811454</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>116.5428809687512</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>135.5982706262149</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>382.7042753885244</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>202.7818644049969</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T24" t="n">
         <v>128.8768572327044</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>43.42713816964669</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>96.91296493635252</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>63.77954427875547</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.10982666625593</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>119.3928770351985</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>157.974495283416</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>211.0948858789031</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>39.10580305650015</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>5.64492333244486</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>399.7910657140874</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>41.26176538196641</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.29201374822401</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>242.5503204948799</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>43.25884065436964</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>148.3766424751937</v>
+        <v>108.7670527531099</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>393.8123863604691</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>82.37452594065145</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>26.41991647964674</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>211.0948858789031</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>122.677833312105</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>106.062636650466</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>126.5506474869049</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>137.8894089295357</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>209.3067930592827</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.6048767950011</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>95.72454668999704</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1153.47011817072</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>800.3931741963595</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>786.1029691432183</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C20" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,19 +5755,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1613.531556264254</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X20" t="n">
-        <v>1194.389092843565</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y20" t="n">
-        <v>786.1029691432183</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5837,16 +5837,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.4105542393174</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C22" t="n">
-        <v>774.8488427225424</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D22" t="n">
-        <v>608.9708499240651</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E22" t="n">
-        <v>439.2128461748023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
@@ -5919,10 +5919,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1537.942061378414</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.942061378414</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.221979591797</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X22" t="n">
-        <v>1174.830224925209</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="Y22" t="n">
-        <v>947.4105542393174</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.2278875652606</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="C23" t="n">
-        <v>462.2278875652606</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="D23" t="n">
-        <v>462.2278875652606</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2278875652606</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F23" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K23" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L23" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N23" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6019,22 +6019,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V23" t="n">
-        <v>1075.344177331261</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W23" t="n">
-        <v>870.5140112656072</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X23" t="n">
-        <v>870.5140112656072</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="Y23" t="n">
-        <v>462.2278875652606</v>
+        <v>709.6437982983157</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
         <v>1580.010651986078</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>990.9896325459688</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C25" t="n">
-        <v>818.4279210291937</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M25" t="n">
-        <v>509.954387939391</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N25" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U25" t="n">
-        <v>1697.183430080417</v>
+        <v>1331.994278590151</v>
       </c>
       <c r="V25" t="n">
-        <v>1410.227921950848</v>
+        <v>1045.038770460581</v>
       </c>
       <c r="W25" t="n">
-        <v>1410.227921950848</v>
+        <v>1045.038770460581</v>
       </c>
       <c r="X25" t="n">
-        <v>1410.227921950848</v>
+        <v>799.6470157939939</v>
       </c>
       <c r="Y25" t="n">
-        <v>1182.808251264956</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.974446717864</v>
+        <v>789.3122260077412</v>
       </c>
       <c r="D26" t="n">
-        <v>890.3927724551322</v>
+        <v>789.3122260077412</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6256,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.6862281353011</v>
+        <v>471.8723833819519</v>
       </c>
       <c r="C28" t="n">
-        <v>219.124516618526</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="D28" t="n">
-        <v>53.24652382004868</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H28" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M28" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6411,25 +6411,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1555.16674309367</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1309.287296672125</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.45316161735</v>
+        <v>1030.85429592523</v>
       </c>
       <c r="V28" t="n">
-        <v>864.4976534877803</v>
+        <v>743.8987877956604</v>
       </c>
       <c r="W28" t="n">
-        <v>864.4976534877803</v>
+        <v>471.8723833819519</v>
       </c>
       <c r="X28" t="n">
-        <v>619.1058988211928</v>
+        <v>471.8723833819519</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.6862281353011</v>
+        <v>471.8723833819519</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>884.041851791104</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.327975491451</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.327975491451</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="Y29" t="n">
-        <v>884.041851791104</v>
+        <v>1180.237171683855</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>250.1515338080341</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>73.44447976979032</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>73.44447976979032</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6636,7 +6636,7 @@
         <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X31" t="n">
-        <v>1532.240118618369</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>437.7730279087674</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>437.7730279087674</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>437.7730279087674</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6703,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L32" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M32" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N32" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O32" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="L32" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M32" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6730,22 +6730,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.531556264254</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1250.914606198081</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>846.059151609114</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>846.059151609114</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
-        <v>437.7730279087674</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6782,19 +6782,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6858,16 +6858,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M34" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N34" t="n">
         <v>761.8145120199619</v>
@@ -6882,25 +6882,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1655.504879189542</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1655.504879189542</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1655.504879189542</v>
+        <v>1197.622557552924</v>
       </c>
       <c r="V34" t="n">
-        <v>1655.504879189542</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="W34" t="n">
-        <v>1383.478474775834</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X34" t="n">
-        <v>1138.086720109246</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y34" t="n">
         <v>910.6670494233545</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>323.0738231583921</v>
+        <v>707.942455969402</v>
       </c>
       <c r="C35" t="n">
-        <v>323.0738231583921</v>
+        <v>279.3607817066703</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0738231583921</v>
+        <v>279.3607817066703</v>
       </c>
       <c r="E35" t="n">
-        <v>323.0738231583921</v>
+        <v>279.3607817066703</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>279.3607817066703</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6973,16 +6973,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>771.6250763881362</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W35" t="n">
-        <v>366.7696217991695</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X35" t="n">
-        <v>323.0738231583921</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y35" t="n">
-        <v>323.0738231583921</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>947.4105542393174</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C37" t="n">
-        <v>774.8488427225424</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D37" t="n">
-        <v>608.9708499240651</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E37" t="n">
-        <v>439.2128461748023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G37" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7104,10 +7104,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7122,25 +7122,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1516.524240083786</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W37" t="n">
-        <v>1516.524240083786</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X37" t="n">
-        <v>1366.648843644196</v>
+        <v>769.5610473520153</v>
       </c>
       <c r="Y37" t="n">
-        <v>1139.229172958305</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1288.897306380071</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>860.3156321173392</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>860.3156321173392</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>431.7339578546075</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7174,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>1288.897306380071</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7259,22 +7259,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R39" t="n">
         <v>1697.183430080417</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>205.8102096861769</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C40" t="n">
-        <v>205.8102096861769</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>205.8102096861769</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>205.8102096861769</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>205.8102096861769</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
-        <v>205.8102096861769</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L40" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M40" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7368,16 +7368,16 @@
         <v>992.2117929153466</v>
       </c>
       <c r="V40" t="n">
-        <v>705.2562847857771</v>
+        <v>965.5250085924711</v>
       </c>
       <c r="W40" t="n">
-        <v>433.2298803720686</v>
+        <v>965.5250085924711</v>
       </c>
       <c r="X40" t="n">
-        <v>433.2298803720686</v>
+        <v>965.5250085924711</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.8102096861769</v>
+        <v>738.1053379065793</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.0738231583921</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C41" t="n">
-        <v>323.0738231583921</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D41" t="n">
         <v>323.0738231583921</v>
@@ -7414,16 +7414,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V41" t="n">
-        <v>855.2769502042993</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W41" t="n">
-        <v>731.3599468587387</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X41" t="n">
-        <v>731.3599468587387</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y41" t="n">
-        <v>323.0738231583921</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C43" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D43" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E43" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
         <v>33.94366860160834</v>
@@ -7575,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7596,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1590.049453665805</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1344.17000724426</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="U43" t="n">
-        <v>1065.737006497366</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="V43" t="n">
-        <v>778.7814983677961</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="W43" t="n">
-        <v>506.7550939540876</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X43" t="n">
-        <v>261.3633392875001</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.94366860160834</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>863.9231742410761</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C44" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D44" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E44" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F44" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
         <v>33.94366860160834</v>
@@ -7648,19 +7648,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
         <v>687.9235674375537</v>
@@ -7678,22 +7678,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1557.901198838462</v>
       </c>
       <c r="U44" t="n">
-        <v>1437.961127397434</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="V44" t="n">
-        <v>1075.344177331261</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="W44" t="n">
-        <v>863.9231742410761</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="X44" t="n">
-        <v>863.9231742410761</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="Y44" t="n">
-        <v>863.9231742410761</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>300.3931336538984</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>130.6351299046357</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
@@ -7815,43 +7815,43 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1580.667833301518</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V46" t="n">
-        <v>1250.986553248845</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W46" t="n">
-        <v>1250.986553248845</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.986553248845</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1250.986553248845</v>
+        <v>466.2711264523757</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9485,7 +9485,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9567,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O23" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9719,25 +9719,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M24" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>58.38468441396117</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>424.2958575201043</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10284,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10351,22 +10351,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>35.25505765581499</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10670,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10907,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11062,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O44" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>196.1667792315036</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,13 +23746,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>83.20606616735837</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>112.7120958471015</v>
+        <v>286.9469506072655</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,16 +23980,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>152.7632594008202</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>107.3395664937068</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>48.84641158877554</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>198.0250356380801</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>120.7920747008458</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>178.7357058030732</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>365.6574531145323</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>148.9505970455142</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>38.25607797978479</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>275.7865528049949</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>45.53519377725019</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.39734951002907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>237.2929137874768</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>29.64593167920032</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3871896330169</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>203.3566569912017</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>154.8335325680888</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>371.6921981321128</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>94.56119464472795</v>
+        <v>134.1707843668117</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>29.77636893441519</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>56.12862662587777</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>257.6660365686271</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>210.9416889011556</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>278.129066730972</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -25836,22 +25836,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>51.58631836451733</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>116.8700044704244</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25918,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>79.97714592615603</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>191.5001069837944</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.2955557367961</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>79.21543680786429</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>372993.3355941703</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372993.3355941703</v>
+        <v>372993.3355941705</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372993.3355941704</v>
+        <v>372993.3355941703</v>
       </c>
     </row>
     <row r="15">
@@ -26328,28 +26328,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="H2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="I2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="J2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="K2" t="n">
+        <v>66111.28565914046</v>
+      </c>
+      <c r="L2" t="n">
         <v>66111.28565914044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66111.28565914043</v>
       </c>
       <c r="M2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="N2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="O2" t="n">
         <v>66111.28565914044</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>116293.1301083978</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>102107.2224080706</v>
       </c>
       <c r="P3" t="n">
-        <v>100292.5090254571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="H4" t="n">
         <v>18764.36858177456</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
         <v>25797.18813722234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-95482.75778016995</v>
       </c>
       <c r="H6" t="n">
-        <v>-92929.11208149832</v>
+        <v>20810.37232822789</v>
       </c>
       <c r="I6" t="n">
-        <v>21549.72894014352</v>
+        <v>20810.37232822788</v>
       </c>
       <c r="J6" t="n">
-        <v>21549.72894014353</v>
+        <v>20810.37232822789</v>
       </c>
       <c r="K6" t="n">
-        <v>21549.72894014354</v>
+        <v>20810.3723282279</v>
       </c>
       <c r="L6" t="n">
-        <v>21549.72894014352</v>
+        <v>20810.37232822788</v>
       </c>
       <c r="M6" t="n">
-        <v>21549.72894014354</v>
+        <v>20810.37232822789</v>
       </c>
       <c r="N6" t="n">
-        <v>21549.72894014356</v>
+        <v>20810.37232822787</v>
       </c>
       <c r="O6" t="n">
-        <v>21549.72894014354</v>
+        <v>-81296.85007984276</v>
       </c>
       <c r="P6" t="n">
-        <v>-78742.7800853136</v>
+        <v>20810.37232822789</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
         <v>424.2958575201043</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -36059,10 +36059,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36205,7 +36205,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O23" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36439,25 +36439,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M24" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>58.38468441396117</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>424.2958575201043</v>
@@ -36536,7 +36536,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -36764,16 +36764,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -37004,10 +37004,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37071,22 +37071,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>35.25505765581499</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -37390,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37627,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37782,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37943,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O44" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -38183,19 +38183,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
